--- a/Program/Other/LM082_底稿_B048金融機構承作「自然人購置高價住宅貸款」統計表(110.3.19(含)起辦理案件).xlsx
+++ b/Program/Other/LM082_底稿_B048金融機構承作「自然人購置高價住宅貸款」統計表(110.3.19(含)起辦理案件).xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.8\itxDoc\itxWrite\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B225B03C-5568-4D34-BF15-1F250D32510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8533D776-921D-42FA-B933-CE343C481E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="2480" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOA" sheetId="87" r:id="rId1"/>
     <sheet name="Original" sheetId="88" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="56">
   <si>
     <t>加權平均
 貸款成數(%)</t>
@@ -1093,10 +1084,6 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYY 年 MM 月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1955,7 +1942,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1967,178 +1954,186 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="33" fillId="29" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="29" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="47" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="33" fillId="29" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="29" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2213,9 +2208,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2253,9 +2248,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2288,26 +2283,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2340,26 +2318,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2535,1311 +2496,1465 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EFC07D-6358-4040-90CC-9ABB61716AD2}">
   <dimension ref="A1:BM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:O16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="8" customWidth="1"/>
-    <col min="5" max="7" width="14.88671875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="8" customWidth="1"/>
-    <col min="9" max="11" width="14.88671875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="8" customWidth="1"/>
-    <col min="13" max="14" width="14.88671875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="50.6640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" style="8" customWidth="1"/>
-    <col min="17" max="37" width="12.109375" style="8" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="12.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="12.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="14.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="12.44140625" style="8" hidden="1" customWidth="1"/>
-    <col min="42" max="65" width="8.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="66" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="14.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="6" customWidth="1"/>
+    <col min="5" max="7" width="14.90625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="6" customWidth="1"/>
+    <col min="9" max="11" width="14.90625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" style="6" customWidth="1"/>
+    <col min="13" max="14" width="14.90625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="50.6328125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="3.6328125" style="6" customWidth="1"/>
+    <col min="17" max="37" width="12.08984375" style="6" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="12.6328125" style="6" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="12.90625" style="6" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="14.90625" style="6" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="12.453125" style="6" hidden="1" customWidth="1"/>
+    <col min="42" max="65" width="8.90625" style="6" hidden="1" customWidth="1"/>
+    <col min="66" max="16384" width="8.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="24.6">
-      <c r="A1" s="7" t="str">
+    <row r="1" spans="1:62" ht="25">
+      <c r="A1" s="5" t="str">
         <f>IF(COUNTBLANK(O8:O15)=8,"","本表有誤")</f>
         <v/>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="BA1" s="10" t="str">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="BA1" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(G3," ",""),"　","")</f>
-        <v>YYY年MM月</v>
-      </c>
-      <c r="BB1" s="10" t="str">
+        <v/>
+      </c>
+      <c r="BB1" s="7" t="e">
         <f>LEFT(BA1,FIND("月",BA1,1))</f>
-        <v>YYY年MM月</v>
-      </c>
-      <c r="BC1" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC1" s="8" t="e">
         <f>MID(BA1,FIND("民國",BA1,1)+2,FIND("年",BA1,1)-FIND("民國",BA1,1)-2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BD1" s="11" t="str">
+      <c r="BD1" s="8" t="e">
         <f>MID(BA1,FIND("年",BA1,1)+1,FIND("月",BA1,1)-FIND("年",BA1,1)-1)</f>
-        <v>MM</v>
-      </c>
-      <c r="BE1" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE1" s="8" t="e">
         <f>(BC1+1911) &amp; RIGHT("0" &amp; BD1,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BF1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="BG1" s="12" t="s">
+      <c r="BG1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BH1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="BI1" s="11">
+      <c r="BI1" s="8">
         <v>3</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="19.8">
-      <c r="F2" s="13" t="s">
+    <row r="2" spans="1:62" ht="19.5">
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
-    <row r="3" spans="1:62" ht="19.8">
-      <c r="F3" s="16" t="s">
+    <row r="3" spans="1:62" ht="19.5">
+      <c r="F3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="1:62" ht="19.8">
-      <c r="Q4" s="17" t="s">
+    <row r="4" spans="1:62" ht="19.5">
+      <c r="Q4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="17"/>
+      <c r="R4" s="35"/>
     </row>
-    <row r="5" spans="1:62" s="10" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:62" s="7" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21" t="s">
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20" t="s">
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="20" t="s">
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20" t="s">
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
     </row>
-    <row r="6" spans="1:62" s="28" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24" t="s">
+    <row r="6" spans="1:62" s="12" customFormat="1" ht="33" customHeight="1">
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="24" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="24" t="s">
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
-      <c r="Q6" s="24" t="s">
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="44"/>
+      <c r="Q6" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="24" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="24" t="s">
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="24" t="s">
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="29" t="s">
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="24" t="s">
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="26"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="48"/>
     </row>
-    <row r="7" spans="1:62" s="28" customFormat="1" ht="48.6">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32" t="s">
+    <row r="7" spans="1:62" s="12" customFormat="1" ht="51">
+      <c r="A7" s="38"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="33" t="s">
+      <c r="E7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="33" t="s">
+      <c r="M7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="34"/>
-      <c r="Q7" s="32" t="s">
+      <c r="O7" s="45"/>
+      <c r="Q7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="33" t="s">
+      <c r="S7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="32" t="s">
+      <c r="U7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="32" t="s">
+      <c r="V7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="X7" s="33" t="s">
+      <c r="W7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="32" t="s">
+      <c r="Y7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Z7" s="32" t="s">
+      <c r="Z7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="33" t="s">
+      <c r="AA7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="32" t="s">
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AE7" s="32" t="s">
+      <c r="AE7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AF7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="33" t="s">
+      <c r="AF7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AH7" s="32" t="s">
+      <c r="AH7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AI7" s="32" t="s">
+      <c r="AI7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AJ7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="33" t="s">
+      <c r="AJ7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AL7" s="32" t="s">
+      <c r="AL7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AM7" s="32" t="s">
+      <c r="AM7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AN7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="33" t="s">
+      <c r="AN7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="37" t="str">
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="17" t="str">
         <f>Q8&amp;R8&amp;S8&amp;T8&amp;U8&amp;V8&amp;W8&amp;X8&amp;Y8&amp;Z8&amp;AA8&amp;AB8&amp;AF8&amp;AJ8&amp;AN8</f>
         <v/>
       </c>
-      <c r="Q8" s="38" t="str">
+      <c r="Q8" s="18" t="str">
         <f>IF(C8="","",IF(OR(C8&lt;0,C8&gt;99999999),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款戶數]須為小於9位之正數,",IF(C8&lt;&gt;INT(C8),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="R8" s="38" t="str">
+      <c r="R8" s="18" t="str">
         <f>IF(D8="","",IF(OR(D8&lt;0,D8&gt;99999999.99),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款金額]須為小於9位之正數,",IF(D8&lt;&gt;ROUND(D8,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="S8" s="38" t="str">
+      <c r="S8" s="18" t="str">
         <f>IF(E8="","",IF(E8&gt;99.99,"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(E8&lt;&gt;ROUND(E8,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T8" s="38" t="str">
+      <c r="T8" s="18" t="str">
         <f>IF(F8="","",IF(F8&gt;99.99,"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(F8&lt;&gt;ROUND(F8,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="U8" s="39" t="str">
+      <c r="U8" s="19" t="str">
         <f>IF(G8="","",IF(OR(G8&lt;0,G8&gt;99999999),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款戶數]須為小於9位之正數,",IF(G8&lt;&gt;INT(G8),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="V8" s="39" t="str">
+      <c r="V8" s="19" t="str">
         <f>IF(H8="","",IF(OR(H8&lt;0,H8&gt;99999999.99),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款金額]須為小於9位之正數,",IF(H8&lt;&gt;ROUND(H8,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="W8" s="39" t="str">
+      <c r="W8" s="19" t="str">
         <f>IF(I8="","",IF(I8&gt;99.99,"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(I8&lt;&gt;ROUND(I8,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="X8" s="39" t="str">
+      <c r="X8" s="19" t="str">
         <f>IF(J8="","",IF(J8&gt;99.99,"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(J8&lt;&gt;ROUND(J8,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Y8" s="40" t="str">
+      <c r="Y8" s="20" t="str">
         <f>IF(K8="","",IF(OR(K8&lt;0,K8&gt;99999999),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款戶數]須為小於9位之正數,",IF(K8&lt;&gt;INT(K8),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="Z8" s="40" t="str">
+      <c r="Z8" s="20" t="str">
         <f>IF(L8="","",IF(OR(L8&lt;0,L8&gt;99999999.99),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款金額]須為小於9位之正數,",IF(L8&lt;&gt;ROUND(L8,2),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="AA8" s="40" t="str">
+      <c r="AA8" s="20" t="str">
         <f>IF(M8="","",IF(M8&gt;99.99,"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(M8&lt;&gt;ROUND(M8,2),"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="AB8" s="40" t="str">
+      <c r="AB8" s="20" t="str">
         <f>IF(N8="","",IF(N8&gt;99.99,"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(N8&lt;&gt;ROUND(N8,2),"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="41" t="str">
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="21" t="str">
         <f>IF(S8="",IF(E8&gt;55,"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款貸款成數]最高為5.5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="41" t="str">
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="21" t="str">
         <f>IF(W8="",IF(I8&gt;40,"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款成數]最高為4成,",""),"")</f>
         <v/>
       </c>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="41" t="str">
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="21" t="str">
         <f>IF(AA8="",IF(M8&gt;40,"110.12.17起申請案件[自然人購置高價住宅貸款成數]最高為4成,",""),"")</f>
         <v/>
       </c>
-      <c r="AO8" s="28"/>
+      <c r="AO8" s="12"/>
     </row>
     <row r="9" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="37" t="str">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17" t="str">
         <f t="shared" ref="O9:O15" si="0">Q9&amp;R9&amp;S9&amp;T9&amp;U9&amp;V9&amp;W9&amp;X9&amp;Y9&amp;Z9&amp;AA9&amp;AB9&amp;AF9&amp;AJ9&amp;AN9</f>
         <v/>
       </c>
-      <c r="Q9" s="38" t="str">
+      <c r="Q9" s="18" t="str">
         <f t="shared" ref="Q9:Q15" si="1">IF(C9="","",IF(OR(C9&lt;0,C9&gt;99999999),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款戶數]須為小於9位之正數,",IF(C9&lt;&gt;INT(C9),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="R9" s="38" t="str">
+      <c r="R9" s="18" t="str">
         <f t="shared" ref="R9:R15" si="2">IF(D9="","",IF(OR(D9&lt;0,D9&gt;99999999.99),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款金額]須為小於9位之正數,",IF(D9&lt;&gt;ROUND(D9,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="S9" s="38" t="str">
+      <c r="S9" s="18" t="str">
         <f t="shared" ref="S9:S15" si="3">IF(E9="","",IF(E9&gt;99.99,"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(E9&lt;&gt;ROUND(E9,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T9" s="38" t="str">
+      <c r="T9" s="18" t="str">
         <f t="shared" ref="T9:T15" si="4">IF(F9="","",IF(F9&gt;99.99,"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(F9&lt;&gt;ROUND(F9,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="U9" s="39" t="str">
+      <c r="U9" s="19" t="str">
         <f t="shared" ref="U9:U15" si="5">IF(G9="","",IF(OR(G9&lt;0,G9&gt;99999999),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款戶數]須為小於9位之正數,",IF(G9&lt;&gt;INT(G9),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="V9" s="39" t="str">
+      <c r="V9" s="19" t="str">
         <f t="shared" ref="V9:V15" si="6">IF(H9="","",IF(OR(H9&lt;0,H9&gt;99999999.99),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款金額]須為小於9位之正數,",IF(H9&lt;&gt;ROUND(H9,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="W9" s="39" t="str">
+      <c r="W9" s="19" t="str">
         <f t="shared" ref="W9:W15" si="7">IF(I9="","",IF(I9&gt;99.99,"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(I9&lt;&gt;ROUND(I9,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="X9" s="39" t="str">
+      <c r="X9" s="19" t="str">
         <f t="shared" ref="X9:X15" si="8">IF(J9="","",IF(J9&gt;99.99,"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(J9&lt;&gt;ROUND(J9,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Y9" s="40" t="str">
+      <c r="Y9" s="20" t="str">
         <f t="shared" ref="Y9:Y15" si="9">IF(K9="","",IF(OR(K9&lt;0,K9&gt;99999999),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款戶數]須為小於9位之正數,",IF(K9&lt;&gt;INT(K9),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="Z9" s="40" t="str">
+      <c r="Z9" s="20" t="str">
         <f t="shared" ref="Z9:Z15" si="10">IF(L9="","",IF(OR(L9&lt;0,L9&gt;99999999.99),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款金額]須為小於9位之正數,",IF(L9&lt;&gt;ROUND(L9,2),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="AA9" s="40" t="str">
+      <c r="AA9" s="20" t="str">
         <f t="shared" ref="AA9:AA15" si="11">IF(M9="","",IF(M9&gt;99.99,"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(M9&lt;&gt;ROUND(M9,2),"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="AB9" s="40" t="str">
+      <c r="AB9" s="20" t="str">
         <f t="shared" ref="AB9:AB15" si="12">IF(N9="","",IF(N9&gt;99.99,"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(N9&lt;&gt;ROUND(N9,2),"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="AF9" s="41" t="str">
+      <c r="AF9" s="21" t="str">
         <f t="shared" ref="AF9:AF14" si="13">IF(S9="",IF(E9&gt;55,"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款貸款成數]最高為5.5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AJ9" s="41" t="str">
+      <c r="AJ9" s="21" t="str">
         <f t="shared" ref="AJ9:AJ14" si="14">IF(W9="",IF(I9&gt;40,"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款成數]最高為4成,",""),"")</f>
         <v/>
       </c>
-      <c r="AN9" s="41" t="str">
+      <c r="AN9" s="21" t="str">
         <f t="shared" ref="AN9:AN14" si="15">IF(AA9="",IF(M9&gt;40,"110.12.17起申請案件[自然人購置高價住宅貸款成數]最高為4成,",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="37" t="str">
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q10" s="38" t="str">
+      <c r="Q10" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R10" s="38" t="str">
+      <c r="R10" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S10" s="38" t="str">
+      <c r="S10" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T10" s="38" t="str">
+      <c r="T10" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U10" s="39" t="str">
+      <c r="U10" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V10" s="39" t="str">
+      <c r="V10" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W10" s="39" t="str">
+      <c r="W10" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X10" s="39" t="str">
+      <c r="X10" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y10" s="40" t="str">
+      <c r="Y10" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z10" s="40" t="str">
+      <c r="Z10" s="20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA10" s="40" t="str">
+      <c r="AA10" s="20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB10" s="40" t="str">
+      <c r="AB10" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AF10" s="41" t="str">
+      <c r="AF10" s="21" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AJ10" s="41" t="str">
+      <c r="AJ10" s="21" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN10" s="41" t="str">
+      <c r="AN10" s="21" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="37" t="str">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q11" s="38" t="str">
+      <c r="Q11" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R11" s="38" t="str">
+      <c r="R11" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S11" s="38" t="str">
+      <c r="S11" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T11" s="38" t="str">
+      <c r="T11" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U11" s="39" t="str">
+      <c r="U11" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V11" s="39" t="str">
+      <c r="V11" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W11" s="39" t="str">
+      <c r="W11" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X11" s="39" t="str">
+      <c r="X11" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y11" s="40" t="str">
+      <c r="Y11" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z11" s="40" t="str">
+      <c r="Z11" s="20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA11" s="40" t="str">
+      <c r="AA11" s="20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB11" s="40" t="str">
+      <c r="AB11" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AF11" s="41" t="str">
+      <c r="AF11" s="21" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AJ11" s="41" t="str">
+      <c r="AJ11" s="21" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN11" s="41" t="str">
+      <c r="AN11" s="21" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="37" t="str">
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q12" s="38" t="str">
+      <c r="Q12" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R12" s="38" t="str">
+      <c r="R12" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S12" s="38" t="str">
+      <c r="S12" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T12" s="38" t="str">
+      <c r="T12" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U12" s="39" t="str">
+      <c r="U12" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V12" s="39" t="str">
+      <c r="V12" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W12" s="39" t="str">
+      <c r="W12" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X12" s="39" t="str">
+      <c r="X12" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y12" s="40" t="str">
+      <c r="Y12" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z12" s="40" t="str">
+      <c r="Z12" s="20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA12" s="40" t="str">
+      <c r="AA12" s="20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB12" s="40" t="str">
+      <c r="AB12" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AF12" s="41" t="str">
+      <c r="AF12" s="21" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AJ12" s="41" t="str">
+      <c r="AJ12" s="21" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN12" s="41" t="str">
+      <c r="AN12" s="21" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="37" t="str">
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q13" s="38" t="str">
+      <c r="Q13" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R13" s="38" t="str">
+      <c r="R13" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S13" s="38" t="str">
+      <c r="S13" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T13" s="38" t="str">
+      <c r="T13" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U13" s="39" t="str">
+      <c r="U13" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V13" s="39" t="str">
+      <c r="V13" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W13" s="39" t="str">
+      <c r="W13" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X13" s="39" t="str">
+      <c r="X13" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y13" s="40" t="str">
+      <c r="Y13" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z13" s="40" t="str">
+      <c r="Z13" s="20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA13" s="40" t="str">
+      <c r="AA13" s="20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB13" s="40" t="str">
+      <c r="AB13" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AF13" s="41" t="str">
+      <c r="AF13" s="21" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AJ13" s="41" t="str">
+      <c r="AJ13" s="21" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN13" s="41" t="str">
+      <c r="AN13" s="21" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="37" t="str">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q14" s="38" t="str">
+      <c r="Q14" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R14" s="38" t="str">
+      <c r="R14" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S14" s="38" t="str">
+      <c r="S14" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T14" s="38" t="str">
+      <c r="T14" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U14" s="39" t="str">
+      <c r="U14" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V14" s="39" t="str">
+      <c r="V14" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W14" s="39" t="str">
+      <c r="W14" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X14" s="39" t="str">
+      <c r="X14" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y14" s="40" t="str">
+      <c r="Y14" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z14" s="40" t="str">
+      <c r="Z14" s="20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA14" s="40" t="str">
+      <c r="AA14" s="20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB14" s="40" t="str">
+      <c r="AB14" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AF14" s="41" t="str">
+      <c r="AF14" s="21" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AJ14" s="41" t="str">
+      <c r="AJ14" s="21" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN14" s="41" t="str">
+      <c r="AN14" s="21" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="23">
         <f>SUM(C8:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="24">
         <f>SUM(D8:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="24">
         <f>IF(D15=0,0,ROUND(SUMPRODUCT(D8:D14,E8:E14)/D15,2))</f>
         <v>0</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="24">
         <f>IF(D15=0,0,ROUND(SUMPRODUCT(D8:D14,F8:F14)/D15,2))</f>
         <v>0</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="23">
         <f>SUM(G8:G14)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="24">
         <f>SUM(H8:H14)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="24">
         <f>IF(H15=0,0,ROUND(SUMPRODUCT(H8:H14,I8:I14)/H15,2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="24">
         <f>IF(H15=0,0,ROUND(SUMPRODUCT(H8:H14,J8:J14)/H15,2))</f>
         <v>0</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="23">
         <f>SUM(K8:K14)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="24">
         <f>SUM(L8:L14)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="44">
+      <c r="M15" s="24">
         <f>IF(L15=0,0,ROUND(SUMPRODUCT(L8:L14,M8:M14)/L15,2))</f>
         <v>0</v>
       </c>
-      <c r="N15" s="44">
+      <c r="N15" s="24">
         <f>IF(L15=0,0,ROUND(SUMPRODUCT(L8:L14,N8:N14)/L15,2))</f>
         <v>0</v>
       </c>
-      <c r="O15" s="37" t="str">
+      <c r="O15" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q15" s="38" t="str">
+      <c r="Q15" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R15" s="38" t="str">
+      <c r="R15" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S15" s="38" t="str">
+      <c r="S15" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T15" s="38" t="str">
+      <c r="T15" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U15" s="39" t="str">
+      <c r="U15" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V15" s="39" t="str">
+      <c r="V15" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W15" s="39" t="str">
+      <c r="W15" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X15" s="39" t="str">
+      <c r="X15" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y15" s="40" t="str">
+      <c r="Y15" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z15" s="40" t="str">
+      <c r="Z15" s="20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA15" s="40" t="str">
+      <c r="AA15" s="20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB15" s="40" t="str">
+      <c r="AB15" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AD15" s="45" t="str">
+      <c r="AD15" s="25" t="str">
         <f>IF(Q15="",IF(C15&lt;&gt;SUM(C8:C14),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-撥款戶數]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AE15" s="45" t="str">
+      <c r="AE15" s="25" t="str">
         <f>IF(R15="",IF(D15&lt;&gt;SUM(D8:D14),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AF15" s="41" t="str">
+      <c r="AF15" s="21" t="str">
         <f>IF(S15="",IF(E15&gt;55,"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款貸款成數]最高為5.5成,",IF(D15=0,"",IF(E15&lt;&gt;ROUND(SUMPRODUCT(D8:D14,E8:E14)/D15,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AG15" s="45" t="str">
+      <c r="AG15" s="25" t="str">
         <f>IF(T15="",IF(D15=0,"",IF(F15&lt;&gt;ROUND(SUMPRODUCT(D8:D14,F8:F14)/D15,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
-      <c r="AH15" s="45" t="str">
+      <c r="AH15" s="25" t="str">
         <f>IF(U15="",IF(G15&lt;&gt;SUM(G8:G14),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-撥款戶數]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AI15" s="45" t="str">
+      <c r="AI15" s="25" t="str">
         <f>IF(V15="",IF(H15&lt;&gt;SUM(H8:H14),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AJ15" s="41" t="str">
+      <c r="AJ15" s="21" t="str">
         <f>IF(W15="",IF(I15&gt;40,"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款成數]最高為4成,",IF(H15=0,"",IF(I15&lt;&gt;ROUND(SUMPRODUCT(H8:H14,I8:I14)/H15,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AK15" s="45" t="str">
+      <c r="AK15" s="25" t="str">
         <f>IF(X15="",IF(H15=0,"",IF(J15&lt;&gt;ROUND(SUMPRODUCT(H8:H14,J8:J14)/H15,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
-      <c r="AL15" s="45" t="str">
+      <c r="AL15" s="25" t="str">
         <f>IF(Y15="",IF(K15&lt;&gt;SUM(K8:K14),"110.12.17起申請案件[自然人購置高價住宅貸款-撥款戶數]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AM15" s="45" t="str">
+      <c r="AM15" s="25" t="str">
         <f>IF(Z15="",IF(L15&lt;&gt;SUM(L8:L14),"110.12.17起申請案件[自然人購置高價住宅貸款-撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AN15" s="41" t="str">
+      <c r="AN15" s="21" t="str">
         <f>IF(AA15="",IF(M15&gt;40,"110.12.17起申請案件[自然人購置高價住宅貸款成數]最高為4成,",IF(L15=0,"",IF(M15&lt;&gt;ROUND(SUMPRODUCT(L8:L14,M8:M14)/L15,2),"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AO15" s="45" t="str">
+      <c r="AO15" s="25" t="str">
         <f>IF(AB15="",IF(L15=0,"",IF(N15&lt;&gt;ROUND(SUMPRODUCT(L8:L14,N8:N14)/L15,2),"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:62">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="AF16" s="47"/>
-      <c r="AJ16" s="47"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="AF16" s="26"/>
+      <c r="AJ16" s="26"/>
     </row>
-    <row r="17" spans="1:15" ht="19.8">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:15" ht="19.5">
+      <c r="A17" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52" t="s">
+      <c r="B17" s="55"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
     </row>
-    <row r="18" spans="1:15" ht="19.8">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:15" ht="19.5">
+      <c r="A18" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
     </row>
-    <row r="19" spans="1:15" ht="19.8">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:15" ht="19.5">
+      <c r="A19" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
     </row>
-    <row r="21" spans="1:15" ht="16.2">
-      <c r="A21" s="55" t="s">
+    <row r="21" spans="1:15" ht="17">
+      <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
     </row>
-    <row r="22" spans="1:15" ht="16.2">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:15" ht="17">
+      <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
     </row>
-    <row r="23" spans="1:15" ht="16.2">
-      <c r="A23" s="55" t="s">
+    <row r="23" spans="1:15" ht="17">
+      <c r="A23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
     </row>
-    <row r="24" spans="1:15" ht="16.2">
-      <c r="A24" s="56" t="s">
+    <row r="24" spans="1:15" ht="17">
+      <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
     </row>
-    <row r="25" spans="1:15" ht="16.2">
-      <c r="A25" s="56" t="s">
+    <row r="25" spans="1:15" ht="17">
+      <c r="A25" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
     </row>
-    <row r="26" spans="1:15" ht="16.2">
-      <c r="A26" s="56" t="s">
+    <row r="26" spans="1:15" ht="17">
+      <c r="A26" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -3851,6 +3966,10 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="AD5:AK5"/>
     <mergeCell ref="AL5:AO5"/>
     <mergeCell ref="C6:F6"/>
@@ -3862,6 +3981,11 @@
     <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="AH6:AK6"/>
     <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="A16:O16"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
@@ -3869,15 +3993,6 @@
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="O5:O7"/>
     <mergeCell ref="Q5:X5"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="A16:O16"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3892,348 +4007,348 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="8" customWidth="1"/>
-    <col min="5" max="7" width="14.88671875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="8" customWidth="1"/>
-    <col min="9" max="11" width="14.88671875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="8" customWidth="1"/>
-    <col min="13" max="14" width="14.88671875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="50.6640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" style="8" customWidth="1"/>
-    <col min="17" max="37" width="12.109375" style="8" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="12.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="12.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="14.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="12.44140625" style="8" hidden="1" customWidth="1"/>
-    <col min="42" max="65" width="8.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="66" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="14.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="6" customWidth="1"/>
+    <col min="5" max="7" width="14.90625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="6" customWidth="1"/>
+    <col min="9" max="11" width="14.90625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" style="6" customWidth="1"/>
+    <col min="13" max="14" width="14.90625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="50.6328125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="3.6328125" style="6" customWidth="1"/>
+    <col min="17" max="37" width="12.08984375" style="6" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="12.6328125" style="6" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="12.90625" style="6" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="14.90625" style="6" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="12.453125" style="6" hidden="1" customWidth="1"/>
+    <col min="42" max="65" width="8.90625" style="6" hidden="1" customWidth="1"/>
+    <col min="66" max="16384" width="8.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="24.6">
-      <c r="A1" s="7" t="str">
+    <row r="1" spans="1:62" ht="25">
+      <c r="A1" s="5" t="str">
         <f>IF(COUNTBLANK(O8:O15)=8,"","本表有誤")</f>
         <v/>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="BA1" s="10" t="str">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="BA1" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(G3," ",""),"　","")</f>
         <v>民國110年12月</v>
       </c>
-      <c r="BB1" s="10" t="str">
+      <c r="BB1" s="7" t="str">
         <f>LEFT(BA1,FIND("月",BA1,1))</f>
         <v>民國110年12月</v>
       </c>
-      <c r="BC1" s="11" t="str">
+      <c r="BC1" s="8" t="str">
         <f>MID(BA1,FIND("民國",BA1,1)+2,FIND("年",BA1,1)-FIND("民國",BA1,1)-2)</f>
         <v>110</v>
       </c>
-      <c r="BD1" s="11" t="str">
+      <c r="BD1" s="8" t="str">
         <f>MID(BA1,FIND("年",BA1,1)+1,FIND("月",BA1,1)-FIND("年",BA1,1)-1)</f>
         <v>12</v>
       </c>
-      <c r="BE1" s="11" t="str">
+      <c r="BE1" s="8" t="str">
         <f>(BC1+1911) &amp; RIGHT("0" &amp; BD1,2)</f>
         <v>202112</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BF1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="BG1" s="12" t="s">
+      <c r="BG1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BH1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="BI1" s="11">
+      <c r="BI1" s="8">
         <v>3</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="19.8">
-      <c r="F2" s="13" t="s">
+    <row r="2" spans="1:62" ht="19.5">
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:62" ht="19.8">
-      <c r="F3" s="16" t="s">
+    <row r="3" spans="1:62" ht="19.5">
+      <c r="F3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
     </row>
-    <row r="4" spans="1:62" ht="19.8">
-      <c r="Q4" s="17" t="s">
+    <row r="4" spans="1:62" ht="19.5">
+      <c r="Q4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="17"/>
+      <c r="R4" s="35"/>
     </row>
-    <row r="5" spans="1:62" s="10" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:62" s="7" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21" t="s">
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20" t="s">
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="20" t="s">
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20" t="s">
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
     </row>
-    <row r="6" spans="1:62" s="28" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24" t="s">
+    <row r="6" spans="1:62" s="12" customFormat="1" ht="33" customHeight="1">
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="24" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="24" t="s">
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
-      <c r="Q6" s="24" t="s">
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="44"/>
+      <c r="Q6" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="24" t="s">
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="24" t="s">
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="24" t="s">
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="29" t="s">
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="24" t="s">
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="26"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="48"/>
     </row>
-    <row r="7" spans="1:62" s="28" customFormat="1" ht="48.6">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32" t="s">
+    <row r="7" spans="1:62" s="12" customFormat="1" ht="51">
+      <c r="A7" s="38"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="33" t="s">
+      <c r="E7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="33" t="s">
+      <c r="M7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="34"/>
-      <c r="Q7" s="32" t="s">
+      <c r="O7" s="45"/>
+      <c r="Q7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="33" t="s">
+      <c r="S7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="32" t="s">
+      <c r="U7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="32" t="s">
+      <c r="V7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="X7" s="33" t="s">
+      <c r="W7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="32" t="s">
+      <c r="Y7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Z7" s="32" t="s">
+      <c r="Z7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="33" t="s">
+      <c r="AA7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="32" t="s">
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AE7" s="32" t="s">
+      <c r="AE7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AF7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="33" t="s">
+      <c r="AF7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AH7" s="32" t="s">
+      <c r="AH7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AI7" s="32" t="s">
+      <c r="AI7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AJ7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="33" t="s">
+      <c r="AJ7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AL7" s="32" t="s">
+      <c r="AL7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AM7" s="32" t="s">
+      <c r="AM7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AN7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="33" t="s">
+      <c r="AN7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1">
@@ -4272,86 +4387,86 @@
       <c r="N8" s="2">
         <v>0</v>
       </c>
-      <c r="O8" s="37" t="str">
+      <c r="O8" s="17" t="str">
         <f>Q8&amp;R8&amp;S8&amp;T8&amp;U8&amp;V8&amp;W8&amp;X8&amp;Y8&amp;Z8&amp;AA8&amp;AB8&amp;AF8&amp;AJ8&amp;AN8</f>
         <v/>
       </c>
-      <c r="Q8" s="38" t="str">
+      <c r="Q8" s="18" t="str">
         <f>IF(C8="","",IF(OR(C8&lt;0,C8&gt;99999999),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款戶數]須為小於9位之正數,",IF(C8&lt;&gt;INT(C8),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="R8" s="38" t="str">
+      <c r="R8" s="18" t="str">
         <f>IF(D8="","",IF(OR(D8&lt;0,D8&gt;99999999.99),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款金額]須為小於9位之正數,",IF(D8&lt;&gt;ROUND(D8,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="S8" s="38" t="str">
+      <c r="S8" s="18" t="str">
         <f>IF(E8="","",IF(E8&gt;99.99,"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(E8&lt;&gt;ROUND(E8,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T8" s="38" t="str">
+      <c r="T8" s="18" t="str">
         <f>IF(F8="","",IF(F8&gt;99.99,"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(F8&lt;&gt;ROUND(F8,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="U8" s="39" t="str">
+      <c r="U8" s="19" t="str">
         <f>IF(G8="","",IF(OR(G8&lt;0,G8&gt;99999999),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款戶數]須為小於9位之正數,",IF(G8&lt;&gt;INT(G8),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="V8" s="39" t="str">
+      <c r="V8" s="19" t="str">
         <f>IF(H8="","",IF(OR(H8&lt;0,H8&gt;99999999.99),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款金額]須為小於9位之正數,",IF(H8&lt;&gt;ROUND(H8,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="W8" s="39" t="str">
+      <c r="W8" s="19" t="str">
         <f>IF(I8="","",IF(I8&gt;99.99,"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(I8&lt;&gt;ROUND(I8,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="X8" s="39" t="str">
+      <c r="X8" s="19" t="str">
         <f>IF(J8="","",IF(J8&gt;99.99,"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(J8&lt;&gt;ROUND(J8,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Y8" s="40" t="str">
+      <c r="Y8" s="20" t="str">
         <f>IF(K8="","",IF(OR(K8&lt;0,K8&gt;99999999),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款戶數]須為小於9位之正數,",IF(K8&lt;&gt;INT(K8),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="Z8" s="40" t="str">
+      <c r="Z8" s="20" t="str">
         <f>IF(L8="","",IF(OR(L8&lt;0,L8&gt;99999999.99),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款金額]須為小於9位之正數,",IF(L8&lt;&gt;ROUND(L8,2),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="AA8" s="40" t="str">
+      <c r="AA8" s="20" t="str">
         <f>IF(M8="","",IF(M8&gt;99.99,"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(M8&lt;&gt;ROUND(M8,2),"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="AB8" s="40" t="str">
+      <c r="AB8" s="20" t="str">
         <f>IF(N8="","",IF(N8&gt;99.99,"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(N8&lt;&gt;ROUND(N8,2),"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="41" t="str">
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="21" t="str">
         <f>IF(S8="",IF(E8&gt;55,"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款貸款成數]最高為5.5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="41" t="str">
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="21" t="str">
         <f>IF(W8="",IF(I8&gt;40,"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款成數]最高為4成,",""),"")</f>
         <v/>
       </c>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="41" t="str">
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="21" t="str">
         <f>IF(AA8="",IF(M8&gt;40,"110.12.17起申請案件[自然人購置高價住宅貸款成數]最高為4成,",""),"")</f>
         <v/>
       </c>
-      <c r="AO8" s="28"/>
+      <c r="AO8" s="12"/>
     </row>
     <row r="9" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1">
@@ -4390,76 +4505,76 @@
       <c r="N9" s="2">
         <v>0</v>
       </c>
-      <c r="O9" s="37" t="str">
+      <c r="O9" s="17" t="str">
         <f t="shared" ref="O9:O15" si="0">Q9&amp;R9&amp;S9&amp;T9&amp;U9&amp;V9&amp;W9&amp;X9&amp;Y9&amp;Z9&amp;AA9&amp;AB9&amp;AF9&amp;AJ9&amp;AN9</f>
         <v/>
       </c>
-      <c r="Q9" s="38" t="str">
+      <c r="Q9" s="18" t="str">
         <f t="shared" ref="Q9:Q15" si="1">IF(C9="","",IF(OR(C9&lt;0,C9&gt;99999999),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款戶數]須為小於9位之正數,",IF(C9&lt;&gt;INT(C9),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="R9" s="38" t="str">
+      <c r="R9" s="18" t="str">
         <f t="shared" ref="R9:R15" si="2">IF(D9="","",IF(OR(D9&lt;0,D9&gt;99999999.99),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款金額]須為小於9位之正數,",IF(D9&lt;&gt;ROUND(D9,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-新承作撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="S9" s="38" t="str">
+      <c r="S9" s="18" t="str">
         <f t="shared" ref="S9:S15" si="3">IF(E9="","",IF(E9&gt;99.99,"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(E9&lt;&gt;ROUND(E9,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T9" s="38" t="str">
+      <c r="T9" s="18" t="str">
         <f t="shared" ref="T9:T15" si="4">IF(F9="","",IF(F9&gt;99.99,"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(F9&lt;&gt;ROUND(F9,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="U9" s="39" t="str">
+      <c r="U9" s="19" t="str">
         <f t="shared" ref="U9:U15" si="5">IF(G9="","",IF(OR(G9&lt;0,G9&gt;99999999),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款戶數]須為小於9位之正數,",IF(G9&lt;&gt;INT(G9),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="V9" s="39" t="str">
+      <c r="V9" s="19" t="str">
         <f t="shared" ref="V9:V15" si="6">IF(H9="","",IF(OR(H9&lt;0,H9&gt;99999999.99),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款金額]須為小於9位之正數,",IF(H9&lt;&gt;ROUND(H9,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-新承作撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="W9" s="39" t="str">
+      <c r="W9" s="19" t="str">
         <f t="shared" ref="W9:W15" si="7">IF(I9="","",IF(I9&gt;99.99,"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(I9&lt;&gt;ROUND(I9,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="X9" s="39" t="str">
+      <c r="X9" s="19" t="str">
         <f t="shared" ref="X9:X15" si="8">IF(J9="","",IF(J9&gt;99.99,"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(J9&lt;&gt;ROUND(J9,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Y9" s="40" t="str">
+      <c r="Y9" s="20" t="str">
         <f t="shared" ref="Y9:Y15" si="9">IF(K9="","",IF(OR(K9&lt;0,K9&gt;99999999),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款戶數]須為小於9位之正數,",IF(K9&lt;&gt;INT(K9),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="Z9" s="40" t="str">
+      <c r="Z9" s="20" t="str">
         <f t="shared" ref="Z9:Z15" si="10">IF(L9="","",IF(OR(L9&lt;0,L9&gt;99999999.99),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款金額]須為小於9位之正數,",IF(L9&lt;&gt;ROUND(L9,2),"110.12.17起申請案件[自然人購置高價住宅貸款-新承作撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="AA9" s="40" t="str">
+      <c r="AA9" s="20" t="str">
         <f t="shared" ref="AA9:AA15" si="11">IF(M9="","",IF(M9&gt;99.99,"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(M9&lt;&gt;ROUND(M9,2),"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="AB9" s="40" t="str">
+      <c r="AB9" s="20" t="str">
         <f t="shared" ref="AB9:AB15" si="12">IF(N9="","",IF(N9&gt;99.99,"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(N9&lt;&gt;ROUND(N9,2),"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="AF9" s="41" t="str">
+      <c r="AF9" s="21" t="str">
         <f t="shared" ref="AF9:AF14" si="13">IF(S9="",IF(E9&gt;55,"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款貸款成數]最高為5.5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AJ9" s="41" t="str">
+      <c r="AJ9" s="21" t="str">
         <f t="shared" ref="AJ9:AJ14" si="14">IF(W9="",IF(I9&gt;40,"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款成數]最高為4成,",""),"")</f>
         <v/>
       </c>
-      <c r="AN9" s="41" t="str">
+      <c r="AN9" s="21" t="str">
         <f t="shared" ref="AN9:AN14" si="15">IF(AA9="",IF(M9&gt;40,"110.12.17起申請案件[自然人購置高價住宅貸款成數]最高為4成,",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1">
@@ -4498,76 +4613,76 @@
       <c r="N10" s="2">
         <v>0</v>
       </c>
-      <c r="O10" s="37" t="str">
+      <c r="O10" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q10" s="38" t="str">
+      <c r="Q10" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R10" s="38" t="str">
+      <c r="R10" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S10" s="38" t="str">
+      <c r="S10" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T10" s="38" t="str">
+      <c r="T10" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U10" s="39" t="str">
+      <c r="U10" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V10" s="39" t="str">
+      <c r="V10" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W10" s="39" t="str">
+      <c r="W10" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X10" s="39" t="str">
+      <c r="X10" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y10" s="40" t="str">
+      <c r="Y10" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z10" s="40" t="str">
+      <c r="Z10" s="20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA10" s="40" t="str">
+      <c r="AA10" s="20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB10" s="40" t="str">
+      <c r="AB10" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AF10" s="41" t="str">
+      <c r="AF10" s="21" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AJ10" s="41" t="str">
+      <c r="AJ10" s="21" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN10" s="41" t="str">
+      <c r="AN10" s="21" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
@@ -4606,76 +4721,76 @@
       <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="37" t="str">
+      <c r="O11" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q11" s="38" t="str">
+      <c r="Q11" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R11" s="38" t="str">
+      <c r="R11" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S11" s="38" t="str">
+      <c r="S11" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T11" s="38" t="str">
+      <c r="T11" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U11" s="39" t="str">
+      <c r="U11" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V11" s="39" t="str">
+      <c r="V11" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W11" s="39" t="str">
+      <c r="W11" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X11" s="39" t="str">
+      <c r="X11" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y11" s="40" t="str">
+      <c r="Y11" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z11" s="40" t="str">
+      <c r="Z11" s="20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA11" s="40" t="str">
+      <c r="AA11" s="20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB11" s="40" t="str">
+      <c r="AB11" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AF11" s="41" t="str">
+      <c r="AF11" s="21" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AJ11" s="41" t="str">
+      <c r="AJ11" s="21" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN11" s="41" t="str">
+      <c r="AN11" s="21" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1">
@@ -4714,76 +4829,76 @@
       <c r="N12" s="2">
         <v>0</v>
       </c>
-      <c r="O12" s="37" t="str">
+      <c r="O12" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q12" s="38" t="str">
+      <c r="Q12" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R12" s="38" t="str">
+      <c r="R12" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S12" s="38" t="str">
+      <c r="S12" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T12" s="38" t="str">
+      <c r="T12" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U12" s="39" t="str">
+      <c r="U12" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V12" s="39" t="str">
+      <c r="V12" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W12" s="39" t="str">
+      <c r="W12" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X12" s="39" t="str">
+      <c r="X12" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y12" s="40" t="str">
+      <c r="Y12" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z12" s="40" t="str">
+      <c r="Z12" s="20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA12" s="40" t="str">
+      <c r="AA12" s="20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB12" s="40" t="str">
+      <c r="AB12" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AF12" s="41" t="str">
+      <c r="AF12" s="21" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AJ12" s="41" t="str">
+      <c r="AJ12" s="21" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN12" s="41" t="str">
+      <c r="AN12" s="21" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1">
@@ -4822,76 +4937,76 @@
       <c r="N13" s="2">
         <v>0</v>
       </c>
-      <c r="O13" s="37" t="str">
+      <c r="O13" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q13" s="38" t="str">
+      <c r="Q13" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R13" s="38" t="str">
+      <c r="R13" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S13" s="38" t="str">
+      <c r="S13" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T13" s="38" t="str">
+      <c r="T13" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U13" s="39" t="str">
+      <c r="U13" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V13" s="39" t="str">
+      <c r="V13" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W13" s="39" t="str">
+      <c r="W13" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X13" s="39" t="str">
+      <c r="X13" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y13" s="40" t="str">
+      <c r="Y13" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z13" s="40" t="str">
+      <c r="Z13" s="20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA13" s="40" t="str">
+      <c r="AA13" s="20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB13" s="40" t="str">
+      <c r="AB13" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AF13" s="41" t="str">
+      <c r="AF13" s="21" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AJ13" s="41" t="str">
+      <c r="AJ13" s="21" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN13" s="41" t="str">
+      <c r="AN13" s="21" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1">
@@ -4930,439 +5045,439 @@
       <c r="N14" s="2">
         <v>0</v>
       </c>
-      <c r="O14" s="37" t="str">
+      <c r="O14" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q14" s="38" t="str">
+      <c r="Q14" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R14" s="38" t="str">
+      <c r="R14" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S14" s="38" t="str">
+      <c r="S14" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T14" s="38" t="str">
+      <c r="T14" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U14" s="39" t="str">
+      <c r="U14" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V14" s="39" t="str">
+      <c r="V14" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W14" s="39" t="str">
+      <c r="W14" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X14" s="39" t="str">
+      <c r="X14" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y14" s="40" t="str">
+      <c r="Y14" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z14" s="40" t="str">
+      <c r="Z14" s="20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA14" s="40" t="str">
+      <c r="AA14" s="20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB14" s="40" t="str">
+      <c r="AB14" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AF14" s="41" t="str">
+      <c r="AF14" s="21" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AJ14" s="41" t="str">
+      <c r="AJ14" s="21" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN14" s="41" t="str">
+      <c r="AN14" s="21" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="23">
         <f>SUM(C8:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="24">
         <f>SUM(D8:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="24">
         <f>IF(D15=0,0,ROUND(SUMPRODUCT(D8:D14,E8:E14)/D15,2))</f>
         <v>0</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="24">
         <f>IF(D15=0,0,ROUND(SUMPRODUCT(D8:D14,F8:F14)/D15,2))</f>
         <v>0</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="23">
         <f>SUM(G8:G14)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="24">
         <f>SUM(H8:H14)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="24">
         <f>IF(H15=0,0,ROUND(SUMPRODUCT(H8:H14,I8:I14)/H15,2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="24">
         <f>IF(H15=0,0,ROUND(SUMPRODUCT(H8:H14,J8:J14)/H15,2))</f>
         <v>0</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="23">
         <f>SUM(K8:K14)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="24">
         <f>SUM(L8:L14)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="44">
+      <c r="M15" s="24">
         <f>IF(L15=0,0,ROUND(SUMPRODUCT(L8:L14,M8:M14)/L15,2))</f>
         <v>0</v>
       </c>
-      <c r="N15" s="44">
+      <c r="N15" s="24">
         <f>IF(L15=0,0,ROUND(SUMPRODUCT(L8:L14,N8:N14)/L15,2))</f>
         <v>0</v>
       </c>
-      <c r="O15" s="37" t="str">
+      <c r="O15" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q15" s="38" t="str">
+      <c r="Q15" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R15" s="38" t="str">
+      <c r="R15" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S15" s="38" t="str">
+      <c r="S15" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T15" s="38" t="str">
+      <c r="T15" s="18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U15" s="39" t="str">
+      <c r="U15" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V15" s="39" t="str">
+      <c r="V15" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W15" s="39" t="str">
+      <c r="W15" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X15" s="39" t="str">
+      <c r="X15" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y15" s="40" t="str">
+      <c r="Y15" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z15" s="40" t="str">
+      <c r="Z15" s="20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA15" s="40" t="str">
+      <c r="AA15" s="20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB15" s="40" t="str">
+      <c r="AB15" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AD15" s="45" t="str">
+      <c r="AD15" s="25" t="str">
         <f>IF(Q15="",IF(C15&lt;&gt;SUM(C8:C14),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-撥款戶數]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AE15" s="45" t="str">
+      <c r="AE15" s="25" t="str">
         <f>IF(R15="",IF(D15&lt;&gt;SUM(D8:D14),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AF15" s="41" t="str">
+      <c r="AF15" s="21" t="str">
         <f>IF(S15="",IF(E15&gt;55,"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款貸款成數]最高為5.5成,",IF(D15=0,"",IF(E15&lt;&gt;ROUND(SUMPRODUCT(D8:D14,E8:E14)/D15,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AG15" s="45" t="str">
+      <c r="AG15" s="25" t="str">
         <f>IF(T15="",IF(D15=0,"",IF(F15&lt;&gt;ROUND(SUMPRODUCT(D8:D14,F8:F14)/D15,2),"110.3.19~110.12.16申請案件[自然人有2戶以下房貸者之購置高價住宅貸款-加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
-      <c r="AH15" s="45" t="str">
+      <c r="AH15" s="25" t="str">
         <f>IF(U15="",IF(G15&lt;&gt;SUM(G8:G14),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-撥款戶數]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AI15" s="45" t="str">
+      <c r="AI15" s="25" t="str">
         <f>IF(V15="",IF(H15&lt;&gt;SUM(H8:H14),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AJ15" s="41" t="str">
+      <c r="AJ15" s="21" t="str">
         <f>IF(W15="",IF(I15&gt;40,"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款成數]最高為4成,",IF(H15=0,"",IF(I15&lt;&gt;ROUND(SUMPRODUCT(H8:H14,I8:I14)/H15,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AK15" s="45" t="str">
+      <c r="AK15" s="25" t="str">
         <f>IF(X15="",IF(H15=0,"",IF(J15&lt;&gt;ROUND(SUMPRODUCT(H8:H14,J8:J14)/H15,2),"110.3.19~110.12.16申請案件[自然人有3戶以上房貸者之購置高價住宅貸款-加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
-      <c r="AL15" s="45" t="str">
+      <c r="AL15" s="25" t="str">
         <f>IF(Y15="",IF(K15&lt;&gt;SUM(K8:K14),"110.12.17起申請案件[自然人購置高價住宅貸款-撥款戶數]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AM15" s="45" t="str">
+      <c r="AM15" s="25" t="str">
         <f>IF(Z15="",IF(L15&lt;&gt;SUM(L8:L14),"110.12.17起申請案件[自然人購置高價住宅貸款-撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AN15" s="41" t="str">
+      <c r="AN15" s="21" t="str">
         <f>IF(AA15="",IF(M15&gt;40,"110.12.17起申請案件[自然人購置高價住宅貸款成數]最高為4成,",IF(L15=0,"",IF(M15&lt;&gt;ROUND(SUMPRODUCT(L8:L14,M8:M14)/L15,2),"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AO15" s="45" t="str">
+      <c r="AO15" s="25" t="str">
         <f>IF(AB15="",IF(L15=0,"",IF(N15&lt;&gt;ROUND(SUMPRODUCT(L8:L14,N8:N14)/L15,2),"110.12.17起申請案件[自然人購置高價住宅貸款-加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:62">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="AF16" s="47"/>
-      <c r="AJ16" s="47"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="AF16" s="26"/>
+      <c r="AJ16" s="26"/>
     </row>
-    <row r="17" spans="1:15" ht="19.8">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:15" ht="19.5">
+      <c r="A17" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50" t="s">
+      <c r="B17" s="55"/>
+      <c r="C17" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52" t="s">
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52" t="s">
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
     </row>
-    <row r="18" spans="1:15" ht="19.8">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:15" ht="19.5">
+      <c r="A18" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52" t="s">
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52" t="s">
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
     </row>
-    <row r="19" spans="1:15" ht="19.8">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:15" ht="19.5">
+      <c r="A19" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52" t="s">
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52" t="s">
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
     </row>
-    <row r="21" spans="1:15" ht="16.2">
-      <c r="A21" s="55" t="s">
+    <row r="21" spans="1:15" ht="17">
+      <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
     </row>
-    <row r="22" spans="1:15" ht="16.2">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:15" ht="17">
+      <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
     </row>
-    <row r="23" spans="1:15" ht="16.2">
-      <c r="A23" s="55" t="s">
+    <row r="23" spans="1:15" ht="17">
+      <c r="A23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
     </row>
-    <row r="24" spans="1:15" ht="16.2">
-      <c r="A24" s="56" t="s">
+    <row r="24" spans="1:15" ht="17">
+      <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
     </row>
-    <row r="25" spans="1:15" ht="16.2">
-      <c r="A25" s="56" t="s">
+    <row r="25" spans="1:15" ht="17">
+      <c r="A25" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
     </row>
-    <row r="26" spans="1:15" ht="16.2">
-      <c r="A26" s="56" t="s">
+    <row r="26" spans="1:15" ht="17">
+      <c r="A26" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -5374,8 +5489,6 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="K19:N19"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AL6:AO6"/>
     <mergeCell ref="A16:O16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:E17"/>
@@ -5391,6 +5504,8 @@
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AL6:AO6"/>
     <mergeCell ref="C1:N1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
